--- a/biology/Botanique/Melianthaceae/Melianthaceae.xlsx
+++ b/biology/Botanique/Melianthaceae/Melianthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Melianthaceae (Mélianthacées) regroupe des plantes dicotylédones ; elle comprend une vingtaine d'espèces réparties en 2 à 4 genres.
 Ce sont de petits arbres, à feuilles alternes, composées, des régions tempérées à tropicales, originaires d'Afrique tropicale et du sud.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étymologie de cette famille est identique à celle des Melanthiaceae. 
-En effet, le nom vient du genre Melianthus qui lui-même se compose de meli miel et antho fleur, soulignant l'aspect mellifère de la plante[1].
+En effet, le nom vient du genre Melianthus qui lui-même se compose de meli miel et antho fleur, soulignant l'aspect mellifère de la plante.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe les Melianthaceae  dans l'ordre des Geraniales et y incorpore la famille des Greyiaceae.
-La classification phylogénétique APG III (2009)[2] y incorpore la famille des Francoaceae (contenant les genres Francoa et Tetilla).
-Cependant, bien que l'APG III ait utilisé le terme de « Melianthaceae » pour cette famille, le nom « Francoaceae » a la priorité nomenclaturale. Si cette priorité est actée dans les futures APG, cela permettrait de supprimer la confusion avec la famille des  Melanthiaceae (monocotylédones, Liliales)[3].
+La classification phylogénétique APG III (2009) y incorpore la famille des Francoaceae (contenant les genres Francoa et Tetilla).
+Cependant, bien que l'APG III ait utilisé le terme de « Melianthaceae » pour cette famille, le nom « Francoaceae » a la priorité nomenclaturale. Si cette priorité est actée dans les futures APG, cela permettrait de supprimer la confusion avec la famille des  Melanthiaceae (monocotylédones, Liliales).
 </t>
         </is>
       </c>
@@ -579,15 +595,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liste des genres et espèces
-La classification phylogénétique APG III (2009)[2] inclut dans cette famille les genres précédemment placés dans la famille Francoaceae. Les genres Francoa et Tetilla pour être précis.
-Selon Angiosperm Phylogeny Website                        (31 mai 2010)[4] et NCBI  (31 mai 2010)[5] (Plus conforme à APGIII puisqu'il incorpore le genre Francoa anciennement dans Francoaceae) :
+          <t>Liste des genres et espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Francoaceae. Les genres Francoa et Tetilla pour être précis.
+Selon Angiosperm Phylogeny Website                        (31 mai 2010) et NCBI  (31 mai 2010) (Plus conforme à APGIII puisqu'il incorpore le genre Francoa anciennement dans Francoaceae) :
 genre Bersama (en)
 genre Francoa (en) (Attention Angiosperm Phylogeny Website place Francoa dans Melianthaceae et dans Francoaceae)
 genre Greyia (en)
 genre Melianthus
-(NCBI  (31 mai 2010)[5] ne reconnait pas Tetilla (en) et son unique espèce Tetilla hydrocotylefolia, placé par Angiosperm Phylogeny Website dans Francoaceae)
-Selon DELTA Angio           (31 mai 2010)[6] :
+(NCBI  (31 mai 2010) ne reconnait pas Tetilla (en) et son unique espèce Tetilla hydrocotylefolia, placé par Angiosperm Phylogeny Website dans Francoaceae)
+Selon DELTA Angio           (31 mai 2010) :
 genre Bersama (en)
 genre Melianthus</t>
         </is>
@@ -617,9 +638,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (31 mai 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (31 mai 2010) :
 genre Bersama
 Bersama abyssinica
 Bersama lucens
